--- a/data/pca/factorExposure/factorExposure_2017-07-05.xlsx
+++ b/data/pca/factorExposure/factorExposure_2017-07-05.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -26,6 +26,12 @@
   </si>
   <si>
     <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -692,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -711,61 +717,85 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>0.02361284791499049</v>
+        <v>0.009318445997683396</v>
       </c>
       <c r="C2">
-        <v>0.003102831211612376</v>
+        <v>0.04137104692243548</v>
       </c>
       <c r="D2">
-        <v>0.02627121587151611</v>
+        <v>-0.02946863375481098</v>
       </c>
       <c r="E2">
-        <v>0.01154500204206604</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>-0.03088035875558846</v>
+      </c>
+      <c r="F2">
+        <v>-0.009707121629534377</v>
+      </c>
+      <c r="G2">
+        <v>-0.07385680232599118</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>0.01689886448974387</v>
+        <v>0.04256219321432298</v>
       </c>
       <c r="C3">
-        <v>-0.05372388657638272</v>
+        <v>0.08859994095451555</v>
       </c>
       <c r="D3">
-        <v>0.04070582730056419</v>
+        <v>-0.01799832722295963</v>
       </c>
       <c r="E3">
-        <v>0.01729369403978535</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>-0.105453940259505</v>
+      </c>
+      <c r="F3">
+        <v>-0.01586601139481484</v>
+      </c>
+      <c r="G3">
+        <v>-0.1821117816740623</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>0.02327305298811157</v>
+        <v>0.05570433814681781</v>
       </c>
       <c r="C4">
-        <v>-0.008422390567606909</v>
+        <v>0.06688515915574757</v>
       </c>
       <c r="D4">
-        <v>0.07796929993759685</v>
+        <v>-0.02447435519542179</v>
       </c>
       <c r="E4">
-        <v>-0.01598509360182855</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>-0.0248273030435525</v>
+      </c>
+      <c r="F4">
+        <v>-0.01256059680349876</v>
+      </c>
+      <c r="G4">
+        <v>-0.08675949605579968</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -779,163 +809,223 @@
       <c r="E5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>0.01418930291798064</v>
+        <v>0.03704822877559835</v>
       </c>
       <c r="C6">
-        <v>0.001173259410912558</v>
+        <v>0.05321627880223927</v>
       </c>
       <c r="D6">
-        <v>0.08053322505044125</v>
+        <v>-0.01630574201868012</v>
       </c>
       <c r="E6">
-        <v>-0.009535460995179029</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>-0.02324083741327477</v>
+      </c>
+      <c r="F6">
+        <v>-0.009386523812199699</v>
+      </c>
+      <c r="G6">
+        <v>-0.05984871740635245</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>0.01078562298153413</v>
+        <v>0.01977086319020455</v>
       </c>
       <c r="C7">
-        <v>-0.005282714032685057</v>
+        <v>0.04123428072702073</v>
       </c>
       <c r="D7">
-        <v>0.04383434371957833</v>
+        <v>-0.01295574149147904</v>
       </c>
       <c r="E7">
-        <v>-0.05852466347409633</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>0.006620501286046987</v>
+      </c>
+      <c r="F7">
+        <v>0.004649793153042602</v>
+      </c>
+      <c r="G7">
+        <v>-0.1165826291587213</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>0.0001043246649945503</v>
+        <v>0.002002518708997478</v>
       </c>
       <c r="C8">
-        <v>0.002669499572440659</v>
+        <v>0.0231609865472609</v>
       </c>
       <c r="D8">
-        <v>0.002368203339794154</v>
+        <v>-0.003923412949377213</v>
       </c>
       <c r="E8">
-        <v>-0.008106976069409199</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>-0.02051479469355993</v>
+      </c>
+      <c r="F8">
+        <v>-0.007521731462396349</v>
+      </c>
+      <c r="G8">
+        <v>-0.05702244911297589</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>0.01614220538040176</v>
+        <v>0.03296229107969439</v>
       </c>
       <c r="C9">
-        <v>-0.01249234910249302</v>
+        <v>0.04755670037415913</v>
       </c>
       <c r="D9">
-        <v>0.0578217616993122</v>
+        <v>-0.01655694063731914</v>
       </c>
       <c r="E9">
-        <v>-0.004709225049308683</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>-0.01579705619567914</v>
+      </c>
+      <c r="F9">
+        <v>-0.0109440208137315</v>
+      </c>
+      <c r="G9">
+        <v>-0.08279497420387134</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>0.02203284578450144</v>
+        <v>0.1000240107142898</v>
       </c>
       <c r="C10">
-        <v>-0.1748822676953088</v>
+        <v>-0.1814147388439998</v>
       </c>
       <c r="D10">
-        <v>-0.09382780910499999</v>
+        <v>0.01521259734462127</v>
       </c>
       <c r="E10">
-        <v>0.01163676262493532</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>-0.01739940187501792</v>
+      </c>
+      <c r="F10">
+        <v>0.02082876604667231</v>
+      </c>
+      <c r="G10">
+        <v>-0.05225446949539182</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>0.0004709253130056779</v>
+        <v>0.03402609252322567</v>
       </c>
       <c r="C11">
-        <v>-0.00138043778098625</v>
+        <v>0.0546750457505036</v>
       </c>
       <c r="D11">
-        <v>0.04477484555716323</v>
+        <v>-0.002401392775471992</v>
       </c>
       <c r="E11">
-        <v>0.005709506054474631</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>-0.008553739695305273</v>
+      </c>
+      <c r="F11">
+        <v>-0.02237377914221502</v>
+      </c>
+      <c r="G11">
+        <v>-0.06582581031736931</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>0.006077992844973106</v>
+        <v>0.03567908277175909</v>
       </c>
       <c r="C12">
-        <v>-0.008058724385654933</v>
+        <v>0.04897800920210479</v>
       </c>
       <c r="D12">
-        <v>0.04775767488764567</v>
+        <v>-0.006132438040414708</v>
       </c>
       <c r="E12">
-        <v>-0.006614308641275226</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>5.386237137788364e-05</v>
+      </c>
+      <c r="F12">
+        <v>-0.00168597152194726</v>
+      </c>
+      <c r="G12">
+        <v>-0.06175659072397729</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>0.02380704318303217</v>
+        <v>0.01463251920805193</v>
       </c>
       <c r="C13">
-        <v>-0.01752590865389494</v>
+        <v>0.03721040272796671</v>
       </c>
       <c r="D13">
-        <v>0.008074488661450751</v>
+        <v>-0.02603073670882728</v>
       </c>
       <c r="E13">
-        <v>0.009321798222554875</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>-0.02818810898143381</v>
+      </c>
+      <c r="F13">
+        <v>-0.007880319415444561</v>
+      </c>
+      <c r="G13">
+        <v>-0.09653292580567333</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>0.008477644563098189</v>
+        <v>0.007871928825535125</v>
       </c>
       <c r="C14">
-        <v>-0.01373773919554027</v>
+        <v>0.02628376879111693</v>
       </c>
       <c r="D14">
-        <v>0.01072953135752444</v>
+        <v>-0.009301212516723093</v>
       </c>
       <c r="E14">
-        <v>-0.007936518796155936</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>0.000854507543977489</v>
+      </c>
+      <c r="F14">
+        <v>0.006769498409609415</v>
+      </c>
+      <c r="G14">
+        <v>-0.08208483666482161</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -949,27 +1039,39 @@
       <c r="E15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>0.001308417653447939</v>
+        <v>0.03296626638521646</v>
       </c>
       <c r="C16">
-        <v>-0.007508119398469753</v>
+        <v>0.04873971197893856</v>
       </c>
       <c r="D16">
-        <v>0.04917981171515112</v>
+        <v>-0.00188055429473163</v>
       </c>
       <c r="E16">
-        <v>-0.005614150912990338</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>-0.007218750749629625</v>
+      </c>
+      <c r="F16">
+        <v>-0.002850423888243407</v>
+      </c>
+      <c r="G16">
+        <v>-0.06825051496982436</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -983,10 +1085,16 @@
       <c r="E17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1000,146 +1108,200 @@
       <c r="E18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>0.0146844202796063</v>
+        <v>0.01990276885026353</v>
       </c>
       <c r="C19">
-        <v>-0.01781005118067031</v>
+        <v>0.04901220968825014</v>
       </c>
       <c r="D19">
-        <v>0.02058977794366412</v>
+        <v>-0.01858883500080905</v>
       </c>
       <c r="E19">
-        <v>-0.005727085470774434</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>-0.06421418879035561</v>
+      </c>
+      <c r="F19">
+        <v>-0.02260165880767721</v>
+      </c>
+      <c r="G19">
+        <v>-0.1137336502162148</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>0.01066601988118562</v>
+        <v>0.01422271689492142</v>
       </c>
       <c r="C20">
-        <v>-0.00426853968199708</v>
+        <v>0.03736311865018769</v>
       </c>
       <c r="D20">
-        <v>0.01658156590114414</v>
+        <v>-0.01391457035691786</v>
       </c>
       <c r="E20">
-        <v>0.01048727237269007</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>-0.0262635335229883</v>
+      </c>
+      <c r="F20">
+        <v>0.009393596684017827</v>
+      </c>
+      <c r="G20">
+        <v>-0.0879090835456442</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>0.01479146810388654</v>
+        <v>0.01220672226182376</v>
       </c>
       <c r="C21">
-        <v>-0.01625118607133766</v>
+        <v>0.03828276447966799</v>
       </c>
       <c r="D21">
-        <v>0.02517564053739996</v>
+        <v>-0.01802564554785662</v>
       </c>
       <c r="E21">
-        <v>-0.0126160729124646</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>-0.03846550470685878</v>
+      </c>
+      <c r="F21">
+        <v>-0.0001453025695617464</v>
+      </c>
+      <c r="G21">
+        <v>-0.1154447528488011</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>-0.0002897943429881625</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>0.0001121179019552097</v>
       </c>
       <c r="D22">
-        <v>0</v>
+        <v>-6.143699848732765e-05</v>
       </c>
       <c r="E22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+        <v>-0.0002967928914713463</v>
+      </c>
+      <c r="F22">
+        <v>-0.0003565423239046019</v>
+      </c>
+      <c r="G22">
+        <v>-0.0004714161091909854</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>-0.0002897943429881625</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>0.0001121179019552097</v>
       </c>
       <c r="D23">
-        <v>0</v>
+        <v>-6.143699848732765e-05</v>
       </c>
       <c r="E23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+        <v>-0.0002967928914713463</v>
+      </c>
+      <c r="F23">
+        <v>-0.0003565423239046019</v>
+      </c>
+      <c r="G23">
+        <v>-0.0004714161091909854</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>0.004328076074572878</v>
+        <v>0.0274994899589506</v>
       </c>
       <c r="C24">
-        <v>0.003636007528200463</v>
+        <v>0.05127038676444466</v>
       </c>
       <c r="D24">
-        <v>0.04467307957895945</v>
+        <v>-0.007177637281074984</v>
       </c>
       <c r="E24">
-        <v>-0.001929316339269203</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>-0.004091392705660982</v>
+      </c>
+      <c r="F24">
+        <v>-0.01458092737483306</v>
+      </c>
+      <c r="G24">
+        <v>-0.06900581663280068</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>0.01222820931568475</v>
+        <v>0.0421316934489299</v>
       </c>
       <c r="C25">
-        <v>-0.01383764387782928</v>
+        <v>0.05843179328564099</v>
       </c>
       <c r="D25">
-        <v>0.04768250079170175</v>
+        <v>-0.01121648302377021</v>
       </c>
       <c r="E25">
-        <v>-0.002004722112537154</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>0.001887432467178897</v>
+      </c>
+      <c r="F25">
+        <v>-0.009114295831884422</v>
+      </c>
+      <c r="G25">
+        <v>-0.07758313859974246</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>0.0234991055131971</v>
+        <v>0.01433588294121571</v>
       </c>
       <c r="C26">
-        <v>-0.0108530064285842</v>
+        <v>0.009860352943898304</v>
       </c>
       <c r="D26">
-        <v>-0.002389437282791361</v>
+        <v>-0.02358016817479036</v>
       </c>
       <c r="E26">
-        <v>-0.008413253925208428</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>-0.004986737526267493</v>
+      </c>
+      <c r="F26">
+        <v>0.00795707215339916</v>
+      </c>
+      <c r="G26">
+        <v>-0.06540604995647818</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1153,129 +1315,177 @@
       <c r="E27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>0.04574721320872059</v>
+        <v>0.1290678994247602</v>
       </c>
       <c r="C28">
-        <v>-0.2524338557068836</v>
+        <v>-0.2352397122747771</v>
       </c>
       <c r="D28">
-        <v>-0.1331140018657982</v>
+        <v>0.006141547458503348</v>
       </c>
       <c r="E28">
-        <v>-0.0116319397431484</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>-0.005047425061002765</v>
+      </c>
+      <c r="F28">
+        <v>0.0160672505511083</v>
+      </c>
+      <c r="G28">
+        <v>-0.0670303019413081</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>0.008962040386091332</v>
+        <v>0.009201244316859189</v>
       </c>
       <c r="C29">
-        <v>-0.01888501152033822</v>
+        <v>0.0201160963604665</v>
       </c>
       <c r="D29">
-        <v>0.009800855400300061</v>
+        <v>-0.00822110642302519</v>
       </c>
       <c r="E29">
-        <v>-0.003244261496718211</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>0.00180479862455125</v>
+      </c>
+      <c r="F29">
+        <v>0.01535100859771769</v>
+      </c>
+      <c r="G29">
+        <v>-0.07425094515339195</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>0.02363328742995135</v>
+        <v>0.04041826707871794</v>
       </c>
       <c r="C30">
-        <v>0.00396587277636273</v>
+        <v>0.06738815258206991</v>
       </c>
       <c r="D30">
-        <v>0.05917705948180457</v>
+        <v>-0.02912673686620809</v>
       </c>
       <c r="E30">
-        <v>0.0462883260146662</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>-0.05122930071948696</v>
+      </c>
+      <c r="F30">
+        <v>-0.04972951865554925</v>
+      </c>
+      <c r="G30">
+        <v>-0.08599599195212718</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>0.009712359868991995</v>
+        <v>0.05255326516423516</v>
       </c>
       <c r="C31">
-        <v>-0.03848819093457149</v>
+        <v>0.0366954536835387</v>
       </c>
       <c r="D31">
-        <v>0.04617315675710099</v>
+        <v>-0.003276434387970911</v>
       </c>
       <c r="E31">
-        <v>-0.01037842143344844</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>0.004896142170746707</v>
+      </c>
+      <c r="F31">
+        <v>0.03990692748308129</v>
+      </c>
+      <c r="G31">
+        <v>-0.07314215771518302</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>-0.004892414880576748</v>
+        <v>0.001276149780817287</v>
       </c>
       <c r="C32">
-        <v>-0.02249435729581952</v>
+        <v>0.02182354895303969</v>
       </c>
       <c r="D32">
-        <v>-0.001829597785649713</v>
+        <v>0.00403554451051907</v>
       </c>
       <c r="E32">
-        <v>-0.05202366657506097</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>-0.01495507982949975</v>
+      </c>
+      <c r="F32">
+        <v>-0.04018134665044236</v>
+      </c>
+      <c r="G32">
+        <v>-0.09433323733841237</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>0.01389440303853797</v>
+        <v>0.02721656715098269</v>
       </c>
       <c r="C33">
-        <v>-0.0213287591261571</v>
+        <v>0.04819275403221118</v>
       </c>
       <c r="D33">
-        <v>0.03342936547132395</v>
+        <v>-0.01534985055448059</v>
       </c>
       <c r="E33">
-        <v>0.02937868379229581</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>-0.03263969978007409</v>
+      </c>
+      <c r="F33">
+        <v>-0.01953946581532583</v>
+      </c>
+      <c r="G33">
+        <v>-0.1100618263872981</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>-0.004116729599646833</v>
+        <v>0.03988437024251786</v>
       </c>
       <c r="C34">
-        <v>-0.01418375778043861</v>
+        <v>0.06251346577002705</v>
       </c>
       <c r="D34">
-        <v>0.05336286359801119</v>
+        <v>0.004620968932806018</v>
       </c>
       <c r="E34">
-        <v>-0.01002346674378891</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>0.00136633335822507</v>
+      </c>
+      <c r="F34">
+        <v>-0.02111195224190569</v>
+      </c>
+      <c r="G34">
+        <v>-0.07767845490280965</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1289,27 +1499,39 @@
       <c r="E35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:5">
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>0.01322760803363288</v>
+        <v>0.01565390571757479</v>
       </c>
       <c r="C36">
-        <v>-0.01984607511287252</v>
+        <v>0.008307264886963296</v>
       </c>
       <c r="D36">
-        <v>0.006808511979444346</v>
+        <v>-0.01177354304302351</v>
       </c>
       <c r="E36">
-        <v>-0.003679550155539617</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>-0.001217296146727874</v>
+      </c>
+      <c r="F36">
+        <v>0.006446840716218793</v>
+      </c>
+      <c r="G36">
+        <v>-0.06522638361398128</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1323,129 +1545,177 @@
       <c r="E37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>-0.003561547716676734</v>
+        <v>0.03235439926947735</v>
       </c>
       <c r="C38">
-        <v>-0.02908837782846404</v>
+        <v>0.03125462270430282</v>
       </c>
       <c r="D38">
-        <v>0.04304413116698105</v>
+        <v>0.007653617169759264</v>
       </c>
       <c r="E38">
-        <v>-0.007279725533210442</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>-0.002197336446670624</v>
+      </c>
+      <c r="F38">
+        <v>0.01605105408990392</v>
+      </c>
+      <c r="G38">
+        <v>-0.06944655063788682</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>0.004149188627702288</v>
+        <v>0.03430107161404049</v>
       </c>
       <c r="C39">
-        <v>0.02686772515915066</v>
+        <v>0.08049250374741626</v>
       </c>
       <c r="D39">
-        <v>0.08464492813811129</v>
+        <v>-0.01171333548268063</v>
       </c>
       <c r="E39">
-        <v>0.01002331835853733</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>-0.01894870034239214</v>
+      </c>
+      <c r="F39">
+        <v>-0.02754435333538578</v>
+      </c>
+      <c r="G39">
+        <v>-0.06628679350947454</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>0.01214669091430217</v>
+        <v>0.01511557329051684</v>
       </c>
       <c r="C40">
-        <v>-0.01466623331149137</v>
+        <v>0.0413690310698664</v>
       </c>
       <c r="D40">
-        <v>0.0281626812443093</v>
+        <v>-0.01492185668409535</v>
       </c>
       <c r="E40">
-        <v>-0.002991130171472765</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>-0.02095845207207478</v>
+      </c>
+      <c r="F40">
+        <v>0.01333397046385453</v>
+      </c>
+      <c r="G40">
+        <v>-0.1078514022493359</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>0.006490415751787167</v>
+        <v>0.01950454301239781</v>
       </c>
       <c r="C41">
-        <v>-0.02214799025866825</v>
+        <v>-0.0009154957877802676</v>
       </c>
       <c r="D41">
-        <v>-0.007822116614556486</v>
+        <v>-0.003749767177117965</v>
       </c>
       <c r="E41">
-        <v>-0.00333810830082591</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>0.0004028836824469094</v>
+      </c>
+      <c r="F41">
+        <v>0.0098797490983858</v>
+      </c>
+      <c r="G41">
+        <v>-0.0505418126826834</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B42">
-        <v>0.09281788622474391</v>
+        <v>0.009567514884139289</v>
       </c>
       <c r="C42">
-        <v>0.02884285101186364</v>
+        <v>0.03735105837133672</v>
       </c>
       <c r="D42">
-        <v>0.2453929468287738</v>
+        <v>-0.09327260268002023</v>
       </c>
       <c r="E42">
-        <v>0.4054276089807574</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
+        <v>-0.0268922676271431</v>
+      </c>
+      <c r="F42">
+        <v>0.03593273260889997</v>
+      </c>
+      <c r="G42">
+        <v>0.1484615437923963</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>0.007706377443821543</v>
+        <v>0.03348962390173532</v>
       </c>
       <c r="C43">
-        <v>-0.02585307802717815</v>
+        <v>0.01387315797700825</v>
       </c>
       <c r="D43">
-        <v>-0.005058687336179563</v>
+        <v>-0.005517349709358903</v>
       </c>
       <c r="E43">
-        <v>0.001310962758788097</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>-0.013180705067398</v>
+      </c>
+      <c r="F43">
+        <v>0.0009272876563362562</v>
+      </c>
+      <c r="G43">
+        <v>-0.07646471698514716</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>0.002550520285752409</v>
+        <v>0.01103143882790833</v>
       </c>
       <c r="C44">
-        <v>0.000156409941759227</v>
+        <v>0.05590891118318482</v>
       </c>
       <c r="D44">
-        <v>0.03821077487626204</v>
+        <v>-0.006664516332743253</v>
       </c>
       <c r="E44">
-        <v>-0.007167530823369586</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>-0.01755743791113711</v>
+      </c>
+      <c r="F44">
+        <v>0.007720141756856569</v>
+      </c>
+      <c r="G44">
+        <v>-0.0893748686388717</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1459,61 +1729,85 @@
       <c r="E45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>0.01138924564378267</v>
+        <v>0.007566607243084802</v>
       </c>
       <c r="C46">
-        <v>-0.01449829281394629</v>
+        <v>0.01504881594645324</v>
       </c>
       <c r="D46">
-        <v>0.01023960767804201</v>
+        <v>-0.01192118201087492</v>
       </c>
       <c r="E46">
-        <v>0.000421652591610828</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>0.001596743027522872</v>
+      </c>
+      <c r="F46">
+        <v>0.01491613772132034</v>
+      </c>
+      <c r="G46">
+        <v>-0.07489022358690779</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>0.004357508626044064</v>
+        <v>0.07694050118273243</v>
       </c>
       <c r="C47">
-        <v>-0.04849115020945435</v>
+        <v>0.06671928556432863</v>
       </c>
       <c r="D47">
-        <v>0.07296098637195383</v>
+        <v>0.005347213678790434</v>
       </c>
       <c r="E47">
-        <v>-0.005932921846435493</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>0.008844110289288734</v>
+      </c>
+      <c r="F47">
+        <v>0.05306625528872736</v>
+      </c>
+      <c r="G47">
+        <v>-0.06747941910050562</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>0.004130406816032269</v>
+        <v>0.0203840022828614</v>
       </c>
       <c r="C48">
-        <v>-0.02437379896885002</v>
+        <v>0.01171436418282793</v>
       </c>
       <c r="D48">
-        <v>0.01879685446747861</v>
+        <v>-0.001182517352398778</v>
       </c>
       <c r="E48">
-        <v>-0.003015471096743752</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>0.001298386832985609</v>
+      </c>
+      <c r="F48">
+        <v>0.02011832471010735</v>
+      </c>
+      <c r="G48">
+        <v>-0.07077964892065679</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1527,44 +1821,62 @@
       <c r="E49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:5">
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>0.006432115466233349</v>
+        <v>0.07551263657638511</v>
       </c>
       <c r="C50">
-        <v>-0.05123808585272944</v>
+        <v>0.06966463483921118</v>
       </c>
       <c r="D50">
-        <v>0.07327061476953808</v>
+        <v>0.003061849192503916</v>
       </c>
       <c r="E50">
-        <v>-0.03291493704190201</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>0.009450767715764814</v>
+      </c>
+      <c r="F50">
+        <v>0.05835769810807652</v>
+      </c>
+      <c r="G50">
+        <v>-0.08682858562924767</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>0.00744910608766063</v>
+        <v>0.01346453049877912</v>
       </c>
       <c r="C51">
-        <v>-0.01462718588784295</v>
+        <v>0.0340486190376928</v>
       </c>
       <c r="D51">
-        <v>0.001945418696527893</v>
+        <v>-0.009895141898323447</v>
       </c>
       <c r="E51">
-        <v>-0.006325994850903429</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>-0.01571495761798103</v>
+      </c>
+      <c r="F51">
+        <v>-0.02382152970203859</v>
+      </c>
+      <c r="G51">
+        <v>-0.1033901670686187</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1578,163 +1890,223 @@
       <c r="E52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>0.007153944671247437</v>
+        <v>0.08131875547447746</v>
       </c>
       <c r="C53">
-        <v>-0.05709081661616305</v>
+        <v>0.08404478507992706</v>
       </c>
       <c r="D53">
-        <v>0.1313602132181308</v>
+        <v>0.004412178773073401</v>
       </c>
       <c r="E53">
-        <v>-0.01361052449806585</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>0.02862511614150096</v>
+      </c>
+      <c r="F53">
+        <v>0.06540251949000762</v>
+      </c>
+      <c r="G53">
+        <v>-0.06728712853538535</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>0.001812908324293618</v>
+        <v>0.02900150435483477</v>
       </c>
       <c r="C54">
-        <v>-0.03546623674560456</v>
+        <v>0.01498958981705444</v>
       </c>
       <c r="D54">
-        <v>-0.006151949106322055</v>
+        <v>0.00165424703895141</v>
       </c>
       <c r="E54">
-        <v>-0.001213723654478297</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>-0.009227339371675346</v>
+      </c>
+      <c r="F54">
+        <v>-0.0002347852267717724</v>
+      </c>
+      <c r="G54">
+        <v>-0.07715262639429543</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>0.003282491170306108</v>
+        <v>0.07104303335419347</v>
       </c>
       <c r="C55">
-        <v>-0.03593272210099446</v>
+        <v>0.06947364715467591</v>
       </c>
       <c r="D55">
-        <v>0.1061650451075526</v>
+        <v>0.005553750809897856</v>
       </c>
       <c r="E55">
-        <v>0.0002282706830335617</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>0.02491546415928491</v>
+      </c>
+      <c r="F55">
+        <v>0.06274442862547334</v>
+      </c>
+      <c r="G55">
+        <v>-0.0416990444517457</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>0.005979845478232796</v>
+        <v>0.1372532927928722</v>
       </c>
       <c r="C56">
-        <v>-0.07800535329781387</v>
+        <v>0.1103690184039102</v>
       </c>
       <c r="D56">
-        <v>0.169281431906712</v>
+        <v>0.0127648848663082</v>
       </c>
       <c r="E56">
-        <v>-0.003359978410559005</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>0.03226621424055028</v>
+      </c>
+      <c r="F56">
+        <v>0.08050614202163801</v>
+      </c>
+      <c r="G56">
+        <v>-0.01971793509556728</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B57">
-        <v>0.02372055360814602</v>
+        <v>0.006807365353269996</v>
       </c>
       <c r="C57">
-        <v>-0.00630947453937942</v>
+        <v>0.009310353878226764</v>
       </c>
       <c r="D57">
-        <v>0.04544331103924834</v>
+        <v>-0.02363254866283569</v>
       </c>
       <c r="E57">
-        <v>0.002473331238470767</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
+        <v>-0.02392870875274355</v>
+      </c>
+      <c r="F57">
+        <v>-0.009128446909799</v>
+      </c>
+      <c r="G57">
+        <v>-0.02850049270274319</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>0.01503247879132576</v>
+        <v>0.05798808184725453</v>
       </c>
       <c r="C58">
-        <v>-0.06622971913589361</v>
+        <v>0.05099811353248105</v>
       </c>
       <c r="D58">
-        <v>0.1408010265766433</v>
+        <v>-0.03046063523319303</v>
       </c>
       <c r="E58">
-        <v>0.4332054332126442</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>-0.936985812378429</v>
+      </c>
+      <c r="F58">
+        <v>0.2358879643574958</v>
+      </c>
+      <c r="G58">
+        <v>0.1113234406816502</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>0.04299056190109766</v>
+        <v>0.161582852243968</v>
       </c>
       <c r="C59">
-        <v>-0.2656839320821388</v>
+        <v>-0.1999331751560977</v>
       </c>
       <c r="D59">
-        <v>-0.13380517777357</v>
+        <v>0.01110993736947126</v>
       </c>
       <c r="E59">
-        <v>-0.004119629144836952</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>-0.0174005962181371</v>
+      </c>
+      <c r="F59">
+        <v>-0.00117508497093324</v>
+      </c>
+      <c r="G59">
+        <v>-0.04253571994403017</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>0.04213848115391328</v>
+        <v>0.2850248253072645</v>
       </c>
       <c r="C60">
-        <v>-0.1577309795819777</v>
+        <v>0.1079147519708492</v>
       </c>
       <c r="D60">
-        <v>0.09564130301679728</v>
+        <v>-0.01323231335997017</v>
       </c>
       <c r="E60">
-        <v>-0.003972136562824137</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>-0.001648082040812369</v>
+      </c>
+      <c r="F60">
+        <v>-0.3496905904791862</v>
+      </c>
+      <c r="G60">
+        <v>0.1273292915936648</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>0.003031596679027926</v>
+        <v>0.03663678024763244</v>
       </c>
       <c r="C61">
-        <v>-0.002594075420037539</v>
+        <v>0.06695720630067988</v>
       </c>
       <c r="D61">
-        <v>0.06449882523500373</v>
+        <v>-0.005096304453603094</v>
       </c>
       <c r="E61">
-        <v>-0.002271156559975601</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>-0.01164491577966348</v>
+      </c>
+      <c r="F61">
+        <v>-0.01477497985229744</v>
+      </c>
+      <c r="G61">
+        <v>-0.06785680642632892</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1748,129 +2120,177 @@
       <c r="E62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:5">
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>0.008114835222097093</v>
+        <v>0.01454288562260875</v>
       </c>
       <c r="C63">
-        <v>-0.007950370442654581</v>
+        <v>0.02860083636123855</v>
       </c>
       <c r="D63">
-        <v>0.01777612650018081</v>
+        <v>-0.008036521643819567</v>
       </c>
       <c r="E63">
-        <v>-0.009777769598717855</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>0.001482366947205571</v>
+      </c>
+      <c r="F63">
+        <v>0.01783600731841996</v>
+      </c>
+      <c r="G63">
+        <v>-0.07487292017731846</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>0.008846640538971783</v>
+        <v>0.0471026159433565</v>
       </c>
       <c r="C64">
-        <v>-0.02452503130554289</v>
+        <v>0.0460674265221936</v>
       </c>
       <c r="D64">
-        <v>0.06026316699412378</v>
+        <v>-0.006312478636908008</v>
       </c>
       <c r="E64">
-        <v>0.0118206758410949</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <v>-0.0007517903925057472</v>
+      </c>
+      <c r="F64">
+        <v>-0.007180439929429863</v>
+      </c>
+      <c r="G64">
+        <v>-0.06503656291719051</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>0.01633963228175431</v>
+        <v>0.07521057143976201</v>
       </c>
       <c r="C65">
-        <v>0.002102240074239401</v>
+        <v>0.06109431597344769</v>
       </c>
       <c r="D65">
-        <v>0.09285163671006912</v>
+        <v>-0.01633589592381834</v>
       </c>
       <c r="E65">
-        <v>-0.01475444729963786</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>-0.02638146159966256</v>
+      </c>
+      <c r="F65">
+        <v>-0.02944815643556964</v>
+      </c>
+      <c r="G65">
+        <v>-0.02630959509413016</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>0.004096310021509551</v>
+        <v>0.04996676985226814</v>
       </c>
       <c r="C66">
-        <v>0.02205855655406927</v>
+        <v>0.1106237121927314</v>
       </c>
       <c r="D66">
-        <v>0.1122086414061432</v>
+        <v>-0.0117087071857657</v>
       </c>
       <c r="E66">
-        <v>0.007466830821763357</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>-0.02718412165591131</v>
+      </c>
+      <c r="F66">
+        <v>-0.03699681563370654</v>
+      </c>
+      <c r="G66">
+        <v>-0.07894801402255835</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>0.003344227750030648</v>
+        <v>0.05488692807221501</v>
       </c>
       <c r="C67">
-        <v>-0.0519491179794209</v>
+        <v>0.03531272737719368</v>
       </c>
       <c r="D67">
-        <v>0.05260464426525711</v>
+        <v>0.00586501635660736</v>
       </c>
       <c r="E67">
-        <v>-0.008072092108302823</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <v>0.003769991744943599</v>
+      </c>
+      <c r="F67">
+        <v>0.0160757738204886</v>
+      </c>
+      <c r="G67">
+        <v>-0.0631906386376056</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>0.05949317619286864</v>
+        <v>0.1556240679066805</v>
       </c>
       <c r="C68">
-        <v>-0.244343437763843</v>
+        <v>-0.2680739199269478</v>
       </c>
       <c r="D68">
-        <v>-0.1518060196280652</v>
+        <v>-0.005963138160808511</v>
       </c>
       <c r="E68">
-        <v>0.01811771057225834</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>-0.01086981853801756</v>
+      </c>
+      <c r="F68">
+        <v>0.03257338396523976</v>
+      </c>
+      <c r="G68">
+        <v>-0.0261916684423202</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>-0.0008265074760616573</v>
+        <v>0.0807392454220232</v>
       </c>
       <c r="C69">
-        <v>-0.03782523926412297</v>
+        <v>0.06994635297006038</v>
       </c>
       <c r="D69">
-        <v>0.07392905339029553</v>
+        <v>0.009511095083986558</v>
       </c>
       <c r="E69">
-        <v>-0.01157294968010149</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+        <v>0.0256863566166866</v>
+      </c>
+      <c r="F69">
+        <v>0.0368683780332091</v>
+      </c>
+      <c r="G69">
+        <v>-0.06951456287945289</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1884,146 +2304,200 @@
       <c r="E70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:5">
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>0.04384624856719276</v>
+        <v>0.1423122353205273</v>
       </c>
       <c r="C71">
-        <v>-0.2126556676031027</v>
+        <v>-0.2287491981345333</v>
       </c>
       <c r="D71">
-        <v>-0.1151944577042215</v>
+        <v>0.002702624732292215</v>
       </c>
       <c r="E71">
-        <v>0.01162990566411052</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+        <v>-0.03081455047243107</v>
+      </c>
+      <c r="F71">
+        <v>0.01692636710593791</v>
+      </c>
+      <c r="G71">
+        <v>-0.05880882371702267</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>-0.001433274813776323</v>
+        <v>0.08399203605765125</v>
       </c>
       <c r="C72">
-        <v>-0.03300698242771283</v>
+        <v>0.07253095570175928</v>
       </c>
       <c r="D72">
-        <v>0.1173769676786099</v>
+        <v>0.007952171844631083</v>
       </c>
       <c r="E72">
-        <v>-0.005343465611361569</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <v>0.002250400539497776</v>
+      </c>
+      <c r="F72">
+        <v>-0.04281281826789389</v>
+      </c>
+      <c r="G72">
+        <v>-0.0623871242082796</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>0.05360818863389556</v>
+        <v>0.373068989397909</v>
       </c>
       <c r="C73">
-        <v>-0.1654572179171218</v>
+        <v>0.1254972387724603</v>
       </c>
       <c r="D73">
-        <v>0.1896230378071007</v>
+        <v>-0.02331844855268519</v>
       </c>
       <c r="E73">
-        <v>0.0319062173297008</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+        <v>-0.07015769139661823</v>
+      </c>
+      <c r="F73">
+        <v>-0.5716007603366362</v>
+      </c>
+      <c r="G73">
+        <v>0.215931997957349</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>0.002855198391816879</v>
+        <v>0.1051685169630287</v>
       </c>
       <c r="C74">
-        <v>-0.06244711371909079</v>
+        <v>0.1117496535020403</v>
       </c>
       <c r="D74">
-        <v>0.1706859132509026</v>
+        <v>0.009853597660547211</v>
       </c>
       <c r="E74">
-        <v>0.008315651475248079</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+        <v>0.01081907001712755</v>
+      </c>
+      <c r="F74">
+        <v>0.07101393843018582</v>
+      </c>
+      <c r="G74">
+        <v>-0.06480876678093511</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>0.01139827379123186</v>
+        <v>0.2485028891218776</v>
       </c>
       <c r="C75">
-        <v>-0.1564394451804459</v>
+        <v>0.1536031785111101</v>
       </c>
       <c r="D75">
-        <v>0.3067547131463946</v>
+        <v>0.03103509614012633</v>
       </c>
       <c r="E75">
-        <v>0.01187591006373943</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
+        <v>0.05670927864428203</v>
+      </c>
+      <c r="F75">
+        <v>0.1762360251772569</v>
+      </c>
+      <c r="G75">
+        <v>0.05157458445718281</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>5.827227414308422e-05</v>
+        <v>0.1213352605055147</v>
       </c>
       <c r="C76">
-        <v>-0.09812628872098328</v>
+        <v>0.1143368335998588</v>
       </c>
       <c r="D76">
-        <v>0.237927159326802</v>
+        <v>0.02051813135812924</v>
       </c>
       <c r="E76">
-        <v>-0.03491449285489219</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+        <v>0.04041935796920416</v>
+      </c>
+      <c r="F76">
+        <v>0.1176028102366397</v>
+      </c>
+      <c r="G76">
+        <v>-0.04078311019936386</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>0.01397697152362414</v>
+        <v>0.06586987913039163</v>
       </c>
       <c r="C77">
-        <v>-0.01892027698967803</v>
+        <v>0.06179463003541445</v>
       </c>
       <c r="D77">
-        <v>0.03713065147997326</v>
+        <v>-0.01270492785644413</v>
       </c>
       <c r="E77">
-        <v>0.01831503789368729</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+        <v>-0.04960269257824069</v>
+      </c>
+      <c r="F77">
+        <v>-0.01200816471703958</v>
+      </c>
+      <c r="G77">
+        <v>-0.05997147944653473</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>0.005741974475859987</v>
+        <v>0.04175351149835181</v>
       </c>
       <c r="C78">
-        <v>-0.01475832519388982</v>
+        <v>0.05088539892901166</v>
       </c>
       <c r="D78">
-        <v>0.04001222357666624</v>
+        <v>-0.005535380674019079</v>
       </c>
       <c r="E78">
-        <v>0.002933881670142234</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+        <v>-0.0213836938710546</v>
+      </c>
+      <c r="F78">
+        <v>-0.03848607610886174</v>
+      </c>
+      <c r="G78">
+        <v>-0.06975908128849168</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2037,78 +2511,108 @@
       <c r="E79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:5">
+      <c r="F79">
+        <v>0</v>
+      </c>
+      <c r="G79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>0.01593957109625315</v>
+        <v>0.05396505257673491</v>
       </c>
       <c r="C80">
-        <v>-0.07400016352992794</v>
+        <v>0.07127466157445947</v>
       </c>
       <c r="D80">
-        <v>0.2063797110367075</v>
+        <v>-0.01031643618267468</v>
       </c>
       <c r="E80">
-        <v>-0.778562719147772</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+        <v>0.02693997697272785</v>
+      </c>
+      <c r="F80">
+        <v>-0.001085460619132526</v>
+      </c>
+      <c r="G80">
+        <v>-0.6032070210497281</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>0.008047292803054074</v>
+        <v>0.1394582460301827</v>
       </c>
       <c r="C81">
-        <v>-0.09679731518067981</v>
+        <v>0.09722480939341435</v>
       </c>
       <c r="D81">
-        <v>0.172284287250225</v>
+        <v>0.01555862378812693</v>
       </c>
       <c r="E81">
-        <v>-0.01577300110686331</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+        <v>0.03362028853294669</v>
+      </c>
+      <c r="F81">
+        <v>0.1329527908580274</v>
+      </c>
+      <c r="G81">
+        <v>-0.02339001038690413</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>0</v>
+        <v>0.12300335993141</v>
       </c>
       <c r="C82">
-        <v>0</v>
+        <v>0.07097380094788952</v>
       </c>
       <c r="D82">
-        <v>0</v>
+        <v>0.007845520352763228</v>
       </c>
       <c r="E82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+        <v>0.086076468993542</v>
+      </c>
+      <c r="F82">
+        <v>0.0320925382998099</v>
+      </c>
+      <c r="G82">
+        <v>-0.0266508901881205</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>0.007058953930444158</v>
+        <v>0.03632872427068165</v>
       </c>
       <c r="C83">
-        <v>-0.01893007242516636</v>
+        <v>0.02774788761171612</v>
       </c>
       <c r="D83">
-        <v>0.02215532232084861</v>
+        <v>-0.005564364053493586</v>
       </c>
       <c r="E83">
-        <v>0.000704075497604839</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+        <v>-0.0252412666194876</v>
+      </c>
+      <c r="F83">
+        <v>-0.03453588554678025</v>
+      </c>
+      <c r="G83">
+        <v>-0.04620971113835666</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2122,197 +2626,269 @@
       <c r="E84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:5">
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>0.01798798705475643</v>
+        <v>0.2140964892769168</v>
       </c>
       <c r="C85">
-        <v>-0.1226332635044279</v>
+        <v>0.1486806199781789</v>
       </c>
       <c r="D85">
-        <v>0.2798594256235552</v>
+        <v>0.01889763500164642</v>
       </c>
       <c r="E85">
-        <v>0.005846743709947603</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+        <v>0.09622162709924954</v>
+      </c>
+      <c r="F85">
+        <v>0.1369091396354745</v>
+      </c>
+      <c r="G85">
+        <v>0.1027076310718038</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>0.009480554774444648</v>
+        <v>0.01349805803129605</v>
       </c>
       <c r="C86">
-        <v>-0.03007677068157059</v>
+        <v>0.02622317481479433</v>
       </c>
       <c r="D86">
-        <v>0.01589870242555906</v>
+        <v>-0.01198718108551288</v>
       </c>
       <c r="E86">
-        <v>0.03442647586104665</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
+        <v>-0.04305401084790871</v>
+      </c>
+      <c r="F86">
+        <v>-0.032404184270894</v>
+      </c>
+      <c r="G86">
+        <v>-0.1530573311437325</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>0.008625186755489888</v>
+        <v>0.0230954670030363</v>
       </c>
       <c r="C87">
-        <v>-0.006568271332358776</v>
+        <v>0.02201157125602278</v>
       </c>
       <c r="D87">
-        <v>0.03886781829556545</v>
+        <v>-0.01222038323381341</v>
       </c>
       <c r="E87">
-        <v>0.008067052996964866</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
+        <v>-0.08291983014638454</v>
+      </c>
+      <c r="F87">
+        <v>-0.02049655680517493</v>
+      </c>
+      <c r="G87">
+        <v>-0.1003971886606051</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>0.02768364566219152</v>
+        <v>0.0906239265698156</v>
       </c>
       <c r="C88">
-        <v>-0.02790221569657016</v>
+        <v>0.06604041551735135</v>
       </c>
       <c r="D88">
-        <v>0.03937850896985615</v>
+        <v>-0.02244057615943696</v>
       </c>
       <c r="E88">
-        <v>-0.001615532765090911</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+        <v>0.009571181493859217</v>
+      </c>
+      <c r="F88">
+        <v>0.01688943682162813</v>
+      </c>
+      <c r="G88">
+        <v>-0.05361127883304013</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>0.08453846938757809</v>
+        <v>0.2357726335435258</v>
       </c>
       <c r="C89">
-        <v>-0.3980352418543779</v>
+        <v>-0.367221997922538</v>
       </c>
       <c r="D89">
-        <v>-0.2005737917411554</v>
+        <v>0.0007902281645665593</v>
       </c>
       <c r="E89">
-        <v>-0.0158690446402782</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+        <v>0.01873308981745707</v>
+      </c>
+      <c r="F89">
+        <v>0.03110022311086342</v>
+      </c>
+      <c r="G89">
+        <v>-0.05097519522318878</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>0.06395463577506148</v>
+        <v>0.2099022150495895</v>
       </c>
       <c r="C90">
-        <v>-0.307497457191158</v>
+        <v>-0.3188128578752293</v>
       </c>
       <c r="D90">
-        <v>-0.1828467928028145</v>
+        <v>0.004933652906487105</v>
       </c>
       <c r="E90">
-        <v>0.01843858870108469</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+        <v>0.006239239604664091</v>
+      </c>
+      <c r="F90">
+        <v>0.04876234399925237</v>
+      </c>
+      <c r="G90">
+        <v>-0.01514983025238315</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>0.007969886897912551</v>
+        <v>0.1883772152572673</v>
       </c>
       <c r="C91">
-        <v>-0.1377479412742426</v>
+        <v>0.1448512297464715</v>
       </c>
       <c r="D91">
-        <v>0.2383667826782975</v>
+        <v>0.02347378562468286</v>
       </c>
       <c r="E91">
-        <v>-0.01666316001100896</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+        <v>0.06699501048244709</v>
+      </c>
+      <c r="F91">
+        <v>0.1487011401449931</v>
+      </c>
+      <c r="G91">
+        <v>-0.01452485419993913</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>0.0309472770545181</v>
+        <v>0.2035050879432956</v>
       </c>
       <c r="C92">
-        <v>-0.316855384251479</v>
+        <v>-0.2566145945694487</v>
       </c>
       <c r="D92">
-        <v>-0.0746696146470187</v>
+        <v>0.03891685854636015</v>
       </c>
       <c r="E92">
-        <v>0.02095354250465566</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+        <v>-0.02835762514824875</v>
+      </c>
+      <c r="F92">
+        <v>0.0579024333137746</v>
+      </c>
+      <c r="G92">
+        <v>-0.1217373844950221</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>0.06189147520764032</v>
+        <v>0.2347151103348777</v>
       </c>
       <c r="C93">
-        <v>-0.3311937646218912</v>
+        <v>-0.3155484195799505</v>
       </c>
       <c r="D93">
-        <v>-0.1657646621913992</v>
+        <v>0.01143559638980199</v>
       </c>
       <c r="E93">
-        <v>0.04281793211559352</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
+        <v>-0.007299958162760694</v>
+      </c>
+      <c r="F93">
+        <v>0.03051962939704283</v>
+      </c>
+      <c r="G93">
+        <v>-0.02049446508303222</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>0.03124829384836664</v>
+        <v>0.3146746227920145</v>
       </c>
       <c r="C94">
-        <v>-0.1594853741752343</v>
+        <v>0.1811155556899676</v>
       </c>
       <c r="D94">
-        <v>0.2635777271485614</v>
+        <v>0.01868683624363469</v>
       </c>
       <c r="E94">
-        <v>0.01256419513287371</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
+        <v>0.1675815616117326</v>
+      </c>
+      <c r="F94">
+        <v>0.4774059477866247</v>
+      </c>
+      <c r="G94">
+        <v>0.3206827175580693</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>-0.005097873863436456</v>
+        <v>0.0974702089912977</v>
       </c>
       <c r="C95">
-        <v>-0.03248159749180235</v>
+        <v>0.08684513467050498</v>
       </c>
       <c r="D95">
-        <v>0.09496793549898179</v>
+        <v>0.009539333565719151</v>
       </c>
       <c r="E95">
-        <v>0.127658640173492</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+        <v>-0.0633912408333</v>
+      </c>
+      <c r="F95">
+        <v>-0.2090995368735611</v>
+      </c>
+      <c r="G95">
+        <v>0.1097419698113253</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2326,10 +2902,16 @@
       <c r="E96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:5">
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2343,27 +2925,39 @@
       <c r="E97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:5">
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>0.01421203818966132</v>
+        <v>0.1972447879388493</v>
       </c>
       <c r="C98">
-        <v>-0.1494917259534115</v>
+        <v>0.04968487612538951</v>
       </c>
       <c r="D98">
-        <v>0.1413092301844645</v>
+        <v>0.01185451853668329</v>
       </c>
       <c r="E98">
-        <v>0.04631290509505278</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
+        <v>-0.06887733806490486</v>
+      </c>
+      <c r="F98">
+        <v>-0.2371739381796568</v>
+      </c>
+      <c r="G98">
+        <v>0.004155916346485874</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2377,10 +2971,16 @@
       <c r="E99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:5">
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2394,73 +2994,103 @@
       <c r="E100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:5">
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>0.008745235985705051</v>
+        <v>0.009040180025889312</v>
       </c>
       <c r="C101">
-        <v>-0.01860616022967209</v>
+        <v>0.02006654754737279</v>
       </c>
       <c r="D101">
-        <v>0.009469953008544011</v>
+        <v>-0.008038640733793843</v>
       </c>
       <c r="E101">
-        <v>-0.003650083497837245</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
+        <v>0.002094743901540482</v>
+      </c>
+      <c r="F101">
+        <v>0.01635884996711223</v>
+      </c>
+      <c r="G101">
+        <v>-0.07369831087007454</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>0.01786105855975447</v>
+        <v>0.116818442640563</v>
       </c>
       <c r="C102">
-        <v>-0.06732968283327581</v>
+        <v>0.08648809175186493</v>
       </c>
       <c r="D102">
-        <v>0.136058720797275</v>
+        <v>-0.0009983804205794848</v>
       </c>
       <c r="E102">
-        <v>-0.003123438525344682</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
+        <v>0.03150731561901419</v>
+      </c>
+      <c r="F102">
+        <v>0.03995328254795998</v>
+      </c>
+      <c r="G102">
+        <v>-0.00421787678018909</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B103">
-        <v>0.0008826683448423957</v>
+        <v>0.002189245824293854</v>
       </c>
       <c r="C103">
-        <v>-0.005767122516775697</v>
+        <v>0.00368150677747043</v>
       </c>
       <c r="D103">
-        <v>0.01998787450829104</v>
+        <v>7.709033445898581e-05</v>
       </c>
       <c r="E103">
-        <v>-0.01258928046466081</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5">
+        <v>-0.0003808213098427738</v>
+      </c>
+      <c r="F103">
+        <v>0.007121523766124677</v>
+      </c>
+      <c r="G103">
+        <v>-0.01037841213618029</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B104">
-        <v>0.9747965099907672</v>
+        <v>0.0211805995887952</v>
       </c>
       <c r="C104">
-        <v>0.1760640144407386</v>
+        <v>-0.02966485546193065</v>
       </c>
       <c r="D104">
-        <v>-0.01861681309871535</v>
+        <v>-0.9871864493197793</v>
       </c>
       <c r="E104">
-        <v>-0.03961455909197555</v>
+        <v>0.05497691607942628</v>
+      </c>
+      <c r="F104">
+        <v>0.03918303860041498</v>
+      </c>
+      <c r="G104">
+        <v>0.02470161458479411</v>
       </c>
     </row>
   </sheetData>
